--- a/src/earn/xlsx/competition.xlsx
+++ b/src/earn/xlsx/competition.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>LOL队伍信息配置表</t>
   </si>
@@ -60,6 +60,9 @@
     <t>所属赛区</t>
   </si>
   <si>
+    <t>队标</t>
+  </si>
+  <si>
     <t>$LOLTeamInfosCfg</t>
   </si>
   <si>
@@ -72,6 +75,9 @@
     <t>area</t>
   </si>
   <si>
+    <t>pic</t>
+  </si>
+  <si>
     <t>u32</t>
   </si>
   <si>
@@ -84,16 +90,79 @@
     <t>lpl</t>
   </si>
   <si>
+    <t>IGpic</t>
+  </si>
+  <si>
     <t>RNG</t>
   </si>
   <si>
+    <t>RNGpic</t>
+  </si>
+  <si>
     <t>EDG</t>
   </si>
   <si>
+    <t>EDGpic</t>
+  </si>
+  <si>
     <t>TOP</t>
   </si>
   <si>
+    <t>TOPpic</t>
+  </si>
+  <si>
     <t>WE</t>
+  </si>
+  <si>
+    <t>WEpic</t>
+  </si>
+  <si>
+    <t>LOL赛事类型配置表</t>
+  </si>
+  <si>
+    <t>赛事类型编号</t>
+  </si>
+  <si>
+    <t>赛事名</t>
+  </si>
+  <si>
+    <t>赛季</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>$LOLTypeCfg</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>LPL英雄联盟职业联赛</t>
+  </si>
+  <si>
+    <t>2019春季赛</t>
+  </si>
+  <si>
+    <t>LCK英雄联盟冠军联赛</t>
+  </si>
+  <si>
+    <t>lck</t>
+  </si>
+  <si>
+    <t>LMS英雄联盟职业联赛</t>
+  </si>
+  <si>
+    <t>lms</t>
+  </si>
+  <si>
+    <t>LCS英雄联盟冠军联赛</t>
+  </si>
+  <si>
+    <t>lcs</t>
   </si>
 </sst>
 </file>
@@ -101,10 +170,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -122,76 +191,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,6 +288,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -221,47 +318,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -274,31 +343,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,151 +517,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,6 +552,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -494,50 +572,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,12 +593,47 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -573,10 +642,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,141 +654,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1070,169 +1145,276 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:F14"/>
+  <dimension ref="A3:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="23.25" customWidth="1"/>
-    <col min="3" max="3" width="20.625" customWidth="1"/>
-    <col min="4" max="4" width="17.75" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="1" max="1" width="28" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2">
+        <v>1010001</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2">
+        <v>1010002</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2">
+        <v>1010003</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2">
+        <v>1010004</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2">
+        <v>1010005</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1">
-        <v>1010001</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1">
-        <v>1010002</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1">
-        <v>1010003</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="1">
+        <v>101</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1">
-        <v>1010004</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1">
-        <v>1010005</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="1">
+        <v>102</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="1">
+        <v>103</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="1">
+        <v>104</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/earn/xlsx/competition.xlsx
+++ b/src/earn/xlsx/competition.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>LOL队伍信息配置表</t>
   </si>
@@ -87,64 +87,88 @@
     <t>IG</t>
   </si>
   <si>
+    <t>LPL</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>RNG</t>
+  </si>
+  <si>
+    <t>EDG</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>WE</t>
+  </si>
+  <si>
+    <t>BLG</t>
+  </si>
+  <si>
+    <t>FPX</t>
+  </si>
+  <si>
+    <t>JDG</t>
+  </si>
+  <si>
+    <t>LGD</t>
+  </si>
+  <si>
+    <t>OMG</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>VG</t>
+  </si>
+  <si>
+    <t>SDG</t>
+  </si>
+  <si>
+    <t>V5</t>
+  </si>
+  <si>
+    <t>LOL赛事类型配置表</t>
+  </si>
+  <si>
+    <t>赛事类型编号</t>
+  </si>
+  <si>
+    <t>赛事名</t>
+  </si>
+  <si>
+    <t>赛季</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>$LOLTypeCfg</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>LPL英雄联盟职业联赛</t>
+  </si>
+  <si>
+    <t>2019春季赛</t>
+  </si>
+  <si>
     <t>lpl</t>
-  </si>
-  <si>
-    <t>IGpic</t>
-  </si>
-  <si>
-    <t>RNG</t>
-  </si>
-  <si>
-    <t>RNGpic</t>
-  </si>
-  <si>
-    <t>EDG</t>
-  </si>
-  <si>
-    <t>EDGpic</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>TOPpic</t>
-  </si>
-  <si>
-    <t>WE</t>
-  </si>
-  <si>
-    <t>WEpic</t>
-  </si>
-  <si>
-    <t>LOL赛事类型配置表</t>
-  </si>
-  <si>
-    <t>赛事类型编号</t>
-  </si>
-  <si>
-    <t>赛事名</t>
-  </si>
-  <si>
-    <t>赛季</t>
-  </si>
-  <si>
-    <t>logo</t>
-  </si>
-  <si>
-    <t>$LOLTypeCfg</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>season</t>
-  </si>
-  <si>
-    <t>LPL英雄联盟职业联赛</t>
-  </si>
-  <si>
-    <t>2019春季赛</t>
   </si>
   <si>
     <t>LCK英雄联盟冠军联赛</t>
@@ -171,9 +195,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -197,6 +221,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -205,8 +243,70 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,115 +320,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,6 +367,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -355,175 +547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,6 +558,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -557,6 +590,41 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,50 +658,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -642,10 +666,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,137 +678,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -792,9 +816,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1145,10 +1166,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:F19"/>
+  <dimension ref="A3:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1242,7 +1263,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -1252,13 +1273,13 @@
         <v>1010003</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -1268,13 +1289,13 @@
         <v>1010004</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -1284,136 +1305,312 @@
         <v>1010005</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="B11" s="2">
+        <v>1010006</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="B12" s="2">
+        <v>1010007</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2">
+        <v>1010008</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2">
+        <v>1010009</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2">
+        <v>1010010</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2">
+        <v>1010011</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2">
+        <v>1010012</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2">
+        <v>1010013</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="D18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2">
+        <v>1010014</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2" t="s">
+      <c r="D19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2">
+        <v>1010015</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="D20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2">
+        <v>1010016</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="C25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="3" t="s">
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="1">
+    <row r="27" spans="2:5">
+      <c r="B27" s="1">
         <v>101</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="1">
+      <c r="C27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="1">
         <v>102</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="1">
+      <c r="C28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="1">
         <v>103</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="1">
+      <c r="C29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="1">
         <v>104</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>38</v>
+      <c r="C30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/src/earn/xlsx/competition.xlsx
+++ b/src/earn/xlsx/competition.xlsx
@@ -41,6 +41,29 @@
         </r>
       </text>
     </comment>
+    <comment ref="B26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yineng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+#[primary=true]
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -194,10 +217,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -222,22 +245,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,6 +274,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -283,30 +336,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,44 +380,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -367,187 +390,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,6 +581,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -585,50 +667,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -643,21 +681,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -666,10 +689,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,133 +701,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1166,10 +1189,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:F30"/>
+  <dimension ref="A3:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1508,108 +1531,116 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="1" t="s">
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="1">
-        <v>101</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="1">
+        <v>104</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>46</v>
       </c>
     </row>

--- a/src/earn/xlsx/competition.xlsx
+++ b/src/earn/xlsx/competition.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>LOL队伍信息配置表</t>
   </si>
@@ -87,64 +87,88 @@
     <t>IG</t>
   </si>
   <si>
+    <t>LPL</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>RNG</t>
+  </si>
+  <si>
+    <t>EDG</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>WE</t>
+  </si>
+  <si>
+    <t>BLG</t>
+  </si>
+  <si>
+    <t>FPX</t>
+  </si>
+  <si>
+    <t>JDG</t>
+  </si>
+  <si>
+    <t>LGD</t>
+  </si>
+  <si>
+    <t>OMG</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>VG</t>
+  </si>
+  <si>
+    <t>SDG</t>
+  </si>
+  <si>
+    <t>V5</t>
+  </si>
+  <si>
+    <t>LOL赛事类型配置表</t>
+  </si>
+  <si>
+    <t>赛事类型编号</t>
+  </si>
+  <si>
+    <t>赛事名</t>
+  </si>
+  <si>
+    <t>赛季</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>$LOLTypeCfg</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>LPL英雄联盟职业联赛</t>
+  </si>
+  <si>
+    <t>2019春季赛</t>
+  </si>
+  <si>
     <t>lpl</t>
-  </si>
-  <si>
-    <t>IGpic</t>
-  </si>
-  <si>
-    <t>RNG</t>
-  </si>
-  <si>
-    <t>RNGpic</t>
-  </si>
-  <si>
-    <t>EDG</t>
-  </si>
-  <si>
-    <t>EDGpic</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>TOPpic</t>
-  </si>
-  <si>
-    <t>WE</t>
-  </si>
-  <si>
-    <t>WEpic</t>
-  </si>
-  <si>
-    <t>LOL赛事类型配置表</t>
-  </si>
-  <si>
-    <t>赛事类型编号</t>
-  </si>
-  <si>
-    <t>赛事名</t>
-  </si>
-  <si>
-    <t>赛季</t>
-  </si>
-  <si>
-    <t>logo</t>
-  </si>
-  <si>
-    <t>$LOLTypeCfg</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>season</t>
-  </si>
-  <si>
-    <t>LPL英雄联盟职业联赛</t>
-  </si>
-  <si>
-    <t>2019春季赛</t>
   </si>
   <si>
     <t>LCK英雄联盟冠军联赛</t>
@@ -170,10 +194,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -190,28 +214,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -220,37 +222,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -259,22 +232,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,6 +253,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -302,17 +291,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,15 +345,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,84 +367,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -428,102 +548,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,21 +558,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -593,17 +602,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -611,11 +609,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,6 +638,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -642,10 +666,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,137 +678,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -792,9 +816,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1145,10 +1166,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:F19"/>
+  <dimension ref="A3:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1242,7 +1263,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -1252,13 +1273,13 @@
         <v>1010003</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -1268,13 +1289,13 @@
         <v>1010004</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -1284,136 +1305,320 @@
         <v>1010005</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="B11" s="2">
+        <v>1010006</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="B12" s="2">
+        <v>1010007</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2">
+        <v>1010008</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2">
+        <v>1010009</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2">
+        <v>1010010</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2">
+        <v>1010011</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2">
+        <v>1010012</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2">
+        <v>1010013</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="D18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2">
+        <v>1010014</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2" t="s">
+      <c r="D19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2">
+        <v>1010015</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="D20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2">
+        <v>1010016</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="C26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="3" t="s">
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="1">
+    <row r="28" spans="2:5">
+      <c r="B28" s="1">
         <v>101</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="1">
+      <c r="C28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="1">
         <v>102</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="1">
+      <c r="C29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="1">
         <v>103</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="1">
+      <c r="C30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="1">
         <v>104</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>38</v>
+      <c r="C31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
